--- a/generate_dataset/SVYKHOA_dataset_medicaltalk.xlsx
+++ b/generate_dataset/SVYKHOA_dataset_medicaltalk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C526"/>
+  <dimension ref="A1:C557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12553,6 +12553,726 @@
         </is>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về nghiên cứu lâm sàng, bệnh học và phương pháp điều trị.</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Mục tiêu chính của nghiên cứu về thoát vị bẹn tại Bệnh viện đa khoa Thành phố Cần Thơ từ năm 2017-2018 là gì?</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Nghiên cứu này được thực hiện với hai mục tiêu chính nhằm đánh giá toàn diện tình hình thoát vị bẹn và hiệu quả của một phương pháp phẫu thuật cụ thể. Cụ thể, các mục tiêu bao gồm:
+1.  **Khảo sát đặc điểm lâm sàng và siêu âm:** Mục tiêu đầu tiên là thu thập và phân tích các đặc điểm lâm sàng cũng như kết quả siêu âm của bệnh nhân mắc thoát vị bẹn. Điều này giúp hiểu rõ hơn về tình trạng bệnh lý tại thời điểm bệnh nhân đến khám và điều trị tại Bệnh viện đa khoa Thành phố Cần Thơ trong giai đoạn 2017-2018.
+2.  **Đánh giá kết quả sớm của phẫu thuật Lichtenstein:** Mục tiêu thứ hai là đánh giá hiệu quả tức thời của phương pháp mổ mở kiểu Lichtenstein trong điều trị thoát vị bẹn. Kết quả được đánh giá trong khoảng thời gian sớm sau phẫu thuật (sau 1 tuần, 1 tháng và 3 tháng), nhằm cung cấp dữ liệu về hiệu quả điều trị và các biến chứng có thể xảy ra. Phương pháp Lichtenstein là một kỹ thuật phổ biến và được đánh giá cao nhờ tính đơn giản, khả năng phục hồi sớm và tỉ lệ tái phát thấp, đặc biệt phù hợp với các cơ sở y tế có hạn chế về trang thiết bị và trình độ chuyên môn cho phẫu thuật nội soi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về phẫu thuật, phục hồi chức năng và so sánh các kỹ thuật y tế.</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Dựa trên các thông tin được cung cấp, phương pháp mổ mở kiểu Lichtenstein để điều trị thoát vị bẹn có những ưu điểm nổi bật nào so với các phương pháp khác?</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Phương pháp mổ mở kiểu Lichtenstein đã trở nên phổ biến trong điều trị thoát vị bẹn và được công nhận rộng rãi do mang lại nhiều ưu điểm quan trọng, đặc biệt khi so sánh với các kỹ thuật khâu trực tiếp hoặc phẫu thuật nội soi trong một số bối cảnh. Các ưu điểm nổi bật bao gồm:
+*   **Tính đơn giản:** Kỹ thuật mổ Lichtenstein tương đối dễ thực hiện, không đòi hỏi trang thiết bị quá phức tạp hay trình độ chuyên môn quá cao như phẫu thuật nội soi, giúp nó được ứng dụng rộng rãi hơn, kể cả ở các cơ sở y tế có điều kiện hạn chế.
+*   **Phục hồi sớm hoạt động:** Bệnh nhân có khả năng phục hồi sinh hoạt cá nhân và quay trở lại lao động sớm sau phẫu thuật. Điều này cải thiện chất lượng cuộc sống và giảm gánh nặng kinh tế cho người bệnh và gia đình.
+*   **Tỷ lệ tái phát thấp:** Việc sử dụng mảnh ghép nhân tạo trong kỹ thuật Lichtenstein giúp tăng cường độ bền vững của thành bụng, từ đó giảm đáng kể nguy cơ tái phát thoát vị bẹn, một trong những lo ngại lớn của bệnh nhân và bác sĩ sau phẫu thuật. Trong khi đó, các phương pháp khâu trực tiếp có thể gây căng đường khâu, dẫn đến thiếu máu nuôi, sẹo lành không tốt và nguy cơ tái phát cao hơn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về thiết kế nghiên cứu, tiêu chuẩn tuyển chọn bệnh nhân và đạo đức y học trong nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Nghiên cứu về thoát vị bẹn tại Bệnh viện đa khoa Thành phố Cần Thơ đã áp dụng những tiêu chuẩn lựa chọn và loại trừ bệnh nhân cụ thể nào?</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Để đảm bảo tính đồng nhất và phù hợp của đối tượng nghiên cứu, nhóm tác giả đã thiết lập các tiêu chuẩn lựa chọn và loại trừ rõ ràng:
+**Tiêu chuẩn lựa chọn (Inclusion Criteria):**
+1.  **Chẩn đoán:** Bệnh nhân được chẩn đoán xác định là thoát vị bẹn.
+2.  **Chỉ định phẫu thuật:** Có chỉ định phẫu thuật điều trị thoát vị bẹn.
+3.  **Độ tuổi:** Bệnh nhân từ 16 tuổi trở lên. Điều này giới hạn nghiên cứu vào đối tượng người trưởng thành và thanh thiếu niên lớn, loại trừ các trường hợp thoát vị bẹn ở trẻ em thường có đặc điểm và phương pháp điều trị khác biệt.
+4.  **Nơi điều trị:** Bệnh nhân đến khám và được điều trị tại Bệnh viện đa khoa Thành phố Cần Thơ trong khoảng thời gian từ tháng 4 năm 2017 đến tháng 7 năm 2018.
+**Tiêu chuẩn loại trừ (Exclusion Criteria):**
+1.  **Loại thoát vị phức tạp:** Bệnh nhân bị thoát vị bẹn – đùi phối hợp. Các trường hợp này có thể có đặc điểm lâm sàng và kỹ thuật phẫu thuật khác, làm ảnh hưởng đến tính đồng nhất của kết quả khi chỉ tập trung vào thoát vị bẹn đơn thuần (được phân loại ICD-10 là K40).
+2.  **Không đồng ý điều trị:** Bệnh nhân không đồng ý điều trị bằng phương pháp mổ mở kiểu Lichtenstein. Điều này tuân thủ nguyên tắc đạo đức y học về sự đồng thuận của bệnh nhân trong nghiên cứu và điều trị.</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về đặc điểm lâm sàng, phân loại bệnh và chẩn đoán.</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Những đặc điểm lâm sàng chính của bệnh nhân thoát vị bẹn được khảo sát trong nghiên cứu này đã được phân loại và ghi nhận như thế nào?</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu về thoát vị bẹn, các đặc điểm lâm sàng đóng vai trò quan trọng trong việc chẩn đoán và phân loại bệnh. Những thông tin này giúp các bác sĩ hiểu rõ hơn về bản chất và biểu hiện của thoát vị ở từng bệnh nhân. Dưới đây là tổng hợp các đặc điểm lâm sàng chính được ghi nhận:
+### Bảng Đặc điểm Lâm sàng Bệnh nhân Thoát vị Bẹn
+| Đặc điểm Lâm sàng | Mô tả/Phân loại Chính                                                                                               |
+| :---------------- | :----------------------------------------------------------------------------------------------------------------- |
+| **Vị trí thoát vị** | Bên phải hoặc bên trái.                                                                                            |
+| **Hoàn cảnh xuất hiện khối thoát vị** | Khối thoát vị xuất hiện khi đứng/đi, khi chạy/nhảy, khi ho/rặn/làm việc nặng, hoặc xuất hiện thường xuyên. |
+| **Phân loại thoát vị** | Nguyên phát (lần đầu mắc) hoặc tái phát (đã từng phẫu thuật nhưng bị lại).                                         |
+| **Phân loại theo giải phẫu** | Thoát vị trực tiếp, gián tiếp hoặc hỗn hợp.                                                                        |
+| **Phân loại theo Nyhus** | Các loại Nyhus như IIIA, IIIB, IVB (là một hệ thống phân loại phẫu thuật phổ biến cho thoát vị bẹn).                 |</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về dịch tễ học, đặc điểm nhân khẩu học và kết quả chẩn đoán hình ảnh trong nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Hãy cho biết những thông tin về đặc điểm đối tượng nghiên cứu (nhân khẩu học) và kết quả siêu âm về tạng thoát vị đã được ghi nhận trong nghiên cứu về thoát vị bẹn.</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Thông tin về đặc điểm đối tượng nghiên cứu và kết quả siêu âm là những dữ liệu cốt lõi giúp xác định bức tranh tổng thể về quần thể bệnh nhân và đặc tính của khối thoát vị. Những dữ liệu này không chỉ hỗ trợ chẩn đoán mà còn định hướng cho các quyết định điều trị và nghiên cứu sâu hơn. Dưới đây là tổng hợp các thông tin chính:
+### Bảng Tổng hợp Đặc điểm Đối tượng và Kết quả Siêu âm Thoát vị Bẹn
+| Đặc điểm           | Nội dung                        | Số lượng (n) | Tỷ lệ (%) |
+| :----------------- | :------------------------------ | :----------- | :-------- |
+| **Độ tuổi**        | Trung bình (± độ lệch chuẩn)    | 62,9 ± 18,2  | N/A       |
+|                    | Tuổi nhỏ nhất                   | 20           | N/A       |
+|                    | Tuổi lớn nhất                   | 93           | N/A       |
+|                    | Bệnh nhân từ 70 tuổi trở lên    | N/A          | 39,0      |
+| **Giới tính**      | Nam                             | N/A          | 98,3      |
+|                    | Nữ                              | N/A          | 1,7       |
+| **Tạng thoát vị**  | Quai ruột                       | 22           | 37,3      |
+| (Kết quả siêu âm)  | Mạc nối                         | 28           | 47,5      |
+|                    | Quai ruột và mạc nối            | 9            | 15,3      |
+|                    | **Tổng số ca khảo sát**         | 59           | 100,0     |</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên sâu về các bệnh lý ngoại khoa, cung cấp thông tin chi tiết về dịch tễ học và đặc điểm lâm sàng theo chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Xin vui lòng cung cấp một phân tích chi tiết về đặc điểm chung và các yếu tố dịch tễ học của bệnh nhân thoát vị bẹn được khảo sát trong nghiên cứu này.</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Thoát vị bẹn (ICD-10: K40) là một bệnh lý ngoại khoa phổ biến, với đặc điểm dịch tễ học và lâm sàng được ghi nhận rõ ràng trong nghiên cứu. Nghiên cứu trên 59 bệnh nhân tại Bệnh viện đa khoa Thành phố Cần Thơ cho thấy, nhóm tuổi chủ yếu mắc bệnh là trên 70 tuổi, chiếm tới 39,0% tổng số bệnh nhân. Tuổi trung bình của quần thể nghiên cứu là 62,9 ± 18,2 tuổi, với độ tuổi dao động rất rộng từ 20 đến 93 tuổi. Điều này phù hợp với các nghiên cứu khác, chẳng hạn như của Clay L, cho thấy sự tương đồng về độ tuổi mắc bệnh. Về giới tính, thoát vị bẹn có xu hướng gặp ở nam giới nhiều hơn nữ giới, một thực tế được nhiều nghiên cứu xác nhận. Trong nghiên cứu này, tỷ lệ bệnh nhân nam lên đến 98,3%, rất cao và tương đương với nghiên cứu của Vương Thừa Đức (98% nam) và Bùi Trường Tèo (100% nam). Những đặc điểm này cung cấp cái nhìn tổng quan về quần thể bệnh nhân thoát vị bẹn tại khu vực nghiên cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về chẩn đoán hình ảnh và các phương pháp chẩn đoán bệnh lý ngoại khoa, đặc biệt là thoát vị bẹn.</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Các tạng thoát vị thường gặp trong thoát vị bẹn là gì và vai trò của siêu âm trong chẩn đoán thoát vị bẹn được đánh giá như thế nào theo nghiên cứu?</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Trong thoát vị bẹn (ICD-10: K40), các tạng bên trong ổ bụng có thể thoát ra ngoài qua lỗ thoát vị. Kết quả siêu âm trên 59 bệnh nhân trong nghiên cứu đã chỉ ra các tạng thoát vị phổ biến như sau:
+*   **Mạc nối:** Chiếm tỷ lệ cao nhất với 47,5% các trường hợp. Mạc nối lớn là tạng thường gặp do tính di động và vị trí giải phẫu thuận lợi cho việc thoát vị.
+*   **Quai ruột:** Chiếm 37,3% các trường hợp. Đây là tạng đáng quan ngại hơn do có nguy cơ bị nghẹt, tắc ruột và hoại tử.
+*   **Cả quai ruột và mạc nối:** Chiếm 15,3% các trường hợp, cho thấy sự đa dạng trong cấu trúc tạng thoát vị trong cùng một bệnh nhân.
+Siêu âm đóng vai trò quan trọng trong chẩn đoán thoát vị bẹn. Nghiên cứu của Bạch Tuấn Anh cho thấy siêu âm có thể phát hiện khối thoát vị trong 89,4% trường hợp. Hơn nữa, theo Djuric-Stefanovic A, siêu âm thoát vị bẹn có độ nhạy và độ đặc hiệu rất cao, từ 96% đến 100%, đồng thời có khả năng dự đoán thể bệnh để hỗ trợ phẫu thuật. Điều này khẳng định siêu âm là một công cụ chẩn đoán hiệu quả, không xâm lấn và đáng tin cậy cho thoát vị bẹn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên sâu về kết quả điều trị và theo dõi sau phẫu thuật các bệnh lý ngoại khoa, bao gồm thoát vị bẹn.</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Đánh giá kết quả điều trị sớm sau phẫu thuật thoát vị bẹn theo thời gian như thế nào dựa trên dữ liệu tái khám?</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Kết quả điều trị sớm sau phẫu thuật thoát vị bẹn (ICD-10: K40) được đánh giá qua các lần tái khám, cho thấy sự cải thiện rõ rệt về tình trạng bệnh nhân theo thời gian:
+1.  **Sau 1 tuần:** Tại thời điểm tái khám đầu tiên, có 33,9% bệnh nhân đạt kết quả điều trị 'Tốt', và 66,1% đạt mức 'Khá'. Điều này cho thấy giai đoạn đầu sau phẫu thuật cần thời gian để hồi phục hoàn toàn.
+2.  **Sau 1 tháng:** Tỷ lệ bệnh nhân có kết quả điều trị 'Tốt' đã tăng lên đáng kể, đạt 98,3%. Chỉ còn một tỷ lệ nhỏ 1,7% bệnh nhân ở mức 'Khá'. Hầu hết bệnh nhân có thể trở lại lao động trong vòng 30 ngày, cụ thể 33,9% trở lại sau ≤ 15 ngày và 66,1% trở lại sau 16-30 ngày.
+3.  **Sau 3 tháng:** Kết quả đạt được rất khả quan, với 100% bệnh nhân được đánh giá là có kết quả điều trị 'Tốt'. Không còn trường hợp nào ở mức 'Khá', 'Trung bình' hay 'Kém', chứng tỏ hiệu quả điều trị bền vững và sự phục hồi hoàn toàn của bệnh nhân.
+Tổng quan, nghiên cứu này cho thấy phẫu thuật thoát vị bẹn mang lại kết quả tích cực và ổn định theo thời gian, với hầu hết bệnh nhân đạt được tình trạng 'Tốt' sau 3 tháng theo dõi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về phân loại bệnh lý, đặc điểm lâm sàng và dịch tễ học của thoát vị bẹn theo tiêu chuẩn y khoa và phân loại ICD-10.</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Phân tích chi tiết các đặc điểm lâm sàng về vị trí, loại thoát vị (nguyên phát/tái phát, gián tiếp/trực tiếp/hỗn hợp), và phân loại theo hệ thống (ví dụ: Nyhus) của thoát vị bẹn được ghi nhận trong nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đã cung cấp những đặc điểm lâm sàng chi tiết về thoát vị bẹn (ICD-10: K40), giúp hiểu rõ hơn về tính chất và phân loại của bệnh lý này. Các phát hiện bao gồm:
+*   **Vị trí thoát vị:** Thoát vị bẹn bên phải phổ biến hơn bên trái, một xu hướng đã được ghi nhận trong nhiều nghiên cứu khác.
+*   **Tình trạng thoát vị:** Đa số các trường hợp là thoát vị nguyên phát, cho thấy tỷ lệ tái phát tương đối thấp trong quần thể nghiên cứu.
+*   **Loại thoát vị theo giải phẫu:** Thoát vị bẹn gián tiếp chiếm ưu thế, tiếp theo là trực tiếp và hỗn hợp, phù hợp với mô hình giải phẫu bệnh lý.
+*   **Phân loại theo hệ thống (ví dụ: Nyhus):** Loại IIIB là phổ biến nhất, cho thấy đây là thể thường gặp trong nghiên cứu, thường liên quan đến thoát vị gián tiếp lớn hoặc thoát vị trực tiếp.
+Dưới đây là bảng tổng hợp các đặc điểm lâm sàng chính của thoát vị bẹn trong nghiên cứu:
+| Đặc điểm lâm sàng           | Tỷ lệ (%) | Mô tả                                                         |
+| :-------------------------- | :-------- | :------------------------------------------------------------ |
+| **Vị trí thoát vị**         |           |                                                               |
+| Bên phải                     | 62,7      | Chiếm ưu thế so với bên trái, thường gặp hơn ở nam giới.      |
+| Bên trái                     | 37,3      | Ít gặp hơn bên phải.                                          |
+| **Tình trạng thoát vị**     |           |                                                               |
+| Nguyên phát                  | 98,3      | Lần đầu mắc bệnh, chưa từng được phẫu thuật thoát vị trước đó. |
+| Tái phát                     | 1,7       | Từng được điều trị thoát vị bẹn trước đó và bệnh tái phát.     |
+| **Loại thoát vị (Giải phẫu)** |           |                                                               |
+| Gián tiếp                    | 74,6      | Thoát vị qua lỗ bẹn sâu, đi dọc theo ống bẹn.                 |
+| Trực tiếp                    | 13,6      | Thoát vị qua thành sau ống bẹn, không qua lỗ bẹn sâu.         |
+| Hỗn hợp                      | 11,9      | Kết hợp cả thoát vị gián tiếp và trực tiếp.                   |
+| **Phân loại (ví dụ Nyhus)**  |           |                                                               |
+| Loại IIIB                    | 84,7      | Thoát vị gián tiếp lớn, làm biến dạng vòng bẹn sâu.          |
+| Loại IIIA                    | 13,6      | Thoát vị trực tiếp, thành sau ống bẹn yếu.                   |
+| Loại IVB                     | 1,7       | Thoát vị hỗn hợp, có cả thành phần gián tiếp và trực tiếp.   |</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về phục hồi chức năng và kết quả dài hạn sau điều trị các bệnh lý ngoại khoa, đặc biệt là thoát vị bẹn.</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Sau phẫu thuật thoát vị bẹn, tỷ lệ bệnh nhân có khả năng trở lại lao động và diễn biến kết quả điều trị theo dõi đến 3 tháng được ghi nhận như thế nào trong nghiên cứu?</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Việc đánh giá khả năng trở lại lao động và theo dõi kết quả điều trị là rất quan trọng để đánh giá hiệu quả của phẫu thuật thoát vị bẹn (ICD-10: K40). Nghiên cứu này đã cung cấp dữ liệu rõ ràng về sự phục hồi của bệnh nhân và chất lượng điều trị qua các mốc thời gian. Các thông số này giúp các bác sĩ và bệnh nhân có cái nhìn thực tế về quá trình hồi phục và định hướng phục hồi chức năng sau phẫu thuật.
+Dưới đây là bảng tổng hợp chi tiết về khả năng trở lại lao động và kết quả tái khám:
+| Chỉ số đánh giá           | Thời điểm đánh giá   | Số lượng (n) | Tỷ lệ (%) | Ghi chú                                                            |
+| :------------------------ | :------------------- | :----------- | :-------- | :----------------------------------------------------------------- |
+| **Khả năng trở lại lao động** |                      |              |           | Phục hồi khả năng làm việc sau phẫu thuật thoát vị bẹn           |
+| ≤ 15 ngày                 | Tổng thể nghiên cứu  | 20           | 33,9      | Bệnh nhân phục hồi nhanh chóng và có thể trở lại công việc trong vòng nửa tháng. |
+| 16 - 30 ngày              | Tổng thể nghiên cứu  | 39           | 66,1      | Bệnh nhân cần thêm thời gian phục hồi, trở lại công việc trong khoảng 16 đến 30 ngày. |
+| **Kết quả tái khám**      |                      |              |           | Đánh giá chất lượng điều trị sau phẫu thuật                       |
+| Tốt                       | Sau 1 tuần           | 20           | 33,9      | Tình trạng lâm sàng ổn định, ít biến chứng sớm.                   |
+| Khá                       | Sau 1 tuần           | 39           | 66,1      | Cần thêm thời gian để phục hồi hoàn toàn hoặc có các triệu chứng nhẹ. |
+| Tốt                       | Sau 1 tháng          | 58           | 98,3      | Tỷ lệ hồi phục tốt tăng đáng kể, hầu hết các triệu chứng đã thuyên giảm. |
+| Khá                       | Sau 1 tháng          | 1            | 1,7       | Chỉ còn rất ít trường hợp có tình trạng khá, cần theo dõi thêm.   |
+| Tốt                       | Sau 3 tháng          | 59           | 100,0     | Tất cả bệnh nhân đều đạt kết quả điều trị tốt, phục hồi hoàn toàn và ổn định. |
+| Khá                       | Sau 3 tháng          | 0            | 0,0       | Không còn trường hợp nào ở mức khá, trung bình hay kém sau 3 tháng. |
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về bệnh học và phẫu thuật tiêu hóa, cung cấp thông tin dựa trên ICD-10 và các nghiên cứu lâm sàng.</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Xin vui lòng mô tả hiệu quả và an toàn của phương pháp phẫu thuật Lichtenstein trong điều trị thoát vị bẹn dựa trên các nghiên cứu gần đây.</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu được trích dẫn, phương pháp phẫu thuật Lichtenstein đã cho thấy hiệu quả và độ an toàn cao trong điều trị thoát vị bẹn (mã ICD-10: K40). Cụ thể, sau 3 tháng điều trị, nghiên cứu không ghi nhận trường hợp biến chứng nào và đạt kết quả điều trị tốt 100%. Kết quả này tương đồng với nghiên cứu của Nguyễn Văn Lâm [5], cũng đạt tỷ lệ bệnh nhân có kết quả tốt 100% sau 3 tháng. Một nghiên cứu khác của Phan Sỹ Thanh Hà [4] cũng ghi nhận kết quả tốt đạt 93,7% và khá 6,3%. Về mặt an toàn, nghiên cứu không phát hiện các biến chứng thường gặp như tụ dịch sau một tháng, đau vùng bẹn kéo dài, rối loạn cảm giác, nhiễm trùng hay tái phát bệnh. Điều này cho thấy phẫu thuật Lichtenstein là một lựa chọn an toàn và hiệu quả, được ưa chuộng trên thế giới và tại Việt Nam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về sản phụ khoa, hỗ trợ chẩn đoán và quản lý thai kỳ nguy cơ cao dựa trên các đặc điểm lâm sàng.</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Những đặc điểm lâm sàng và cận lâm sàng nào thường gặp ở thai phụ tiền sản giật có dấu hiệu nặng theo nghiên cứu tại Bệnh viện Phụ sản Hà Nội năm 2022?</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu hồi cứu mô tả cắt ngang trên 125 thai phụ được chẩn đoán tiền sản giật tại Bệnh viện Phụ sản Hà Nội năm 2022, trong đó có 96 thai phụ có tiền sản giật với dấu hiệu nặng (mã ICD-10: O14.1), các đặc điểm lâm sàng và cận lâm sàng nổi bật bao gồm:
+*   **Tỷ lệ:** Tỷ lệ thai phụ tiền sản giật có dấu hiệu nặng chiếm 76,8% tổng số các trường hợp tiền sản giật được nghiên cứu.
+*   **Độ tuổi:** Phần lớn thai phụ trong nhóm nghiên cứu có dấu hiệu nặng dưới 35 tuổi (55,2%).
+*   **Tuổi thai khi chẩn đoán:** 62,5% thai phụ được chẩn đoán tiền sản giật có dấu hiệu nặng khi tuổi thai dưới 34 tuần.
+*   **Tăng huyết áp nặng:** 78,1% thai phụ có tăng huyết áp mức độ 2 trở lên, được định nghĩa là huyết áp tâm thu ≥ 160 mmHg và/hoặc huyết áp tâm trương ≥ 110 mmHg.
+*   **Phù:** Hầu hết thai phụ (81,3%) có biểu hiện phù.
+*   **Protein niệu:** 74,0% thai phụ có protein niệu ≥ 0,5 g/l.
+*   **Tổn thương cơ quan đích:** 43,6% thai phụ tiền sản giật có dấu hiệu nặng có các triệu chứng biểu hiện tổn thương cơ quan đích.
+Kết luận từ nghiên cứu cho thấy, tiền sản giật có dấu hiệu nặng thường xuất hiện trước tuần thai 34, trong đó tăng huyết áp nặng là dấu hiệu thường gặp nhất.</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa hỗ trợ tổng hợp và phân tích dữ liệu nghiên cứu lâm sàng, giúp so sánh hiệu quả các phương pháp điều trị.</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>So sánh thời gian phục hồi và trở lại hoạt động bình thường của bệnh nhân sau phẫu thuật Lichtenstein theo nghiên cứu của bạn với các nghiên cứu khác được đề cập?</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Nghiên cứu của chúng tôi đã ghi nhận thời gian phục hồi và trở lại lao động sớm hơn đáng kể so với một số nghiên cứu khác. Cụ thể:
+1.  **Nghiên cứu của chúng tôi:** Đoạn văn không nêu rõ con số cụ thể về tỷ lệ bệnh nhân trở lại hoạt động bình thường dưới 15 ngày, nhưng khẳng định rằng thời gian phục hồi và trở lại lao động sớm hơn các tác giả khác.
+2.  **Nghiên cứu của Lê Quốc Phong [7]:** Tỷ lệ bệnh nhân trở lại hoạt động bình thường dưới 15 ngày là 22,7%.
+3.  **Nghiên cứu của Bùi Trường Tèo [8]:** Tỷ lệ bệnh nhân trở lại hoạt động bình thường dưới 15 ngày là 9,1%.
+Từ so sánh này, có thể thấy rằng phương pháp điều trị và chăm sóc hậu phẫu trong nghiên cứu của chúng tôi có thể đã góp phần vào việc rút ngắn đáng kể thời gian phục hồi chức năng và lao động cho bệnh nhân sau phẫu thuật Lichtenstein.</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa cung cấp thông tin tổng quan về các phương pháp điều trị và biến chứng y tế.</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Làm thế nào để đánh giá hiệu quả của phẫu thuật Lichtenstein trong điều trị thoát vị bẹn và những biến chứng có thể xảy ra theo báo cáo?</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Hiệu quả của phẫu thuật Lichtenstein trong điều trị thoát vị bẹn (mã ICD-10: K40) thường được đánh giá dựa trên mức độ thành công của ca mổ, tỷ lệ tái phát, và sự vắng mặt của các biến chứng. Theo nghiên cứu được đề cập, phương pháp này đã chứng minh hiệu quả cao và an toàn. Các tiêu chí đánh giá và kết quả ghi nhận từ nghiên cứu cụ thể như sau:
+### Kết quả và Biến chứng sau phẫu thuật Lichtenstein (Nghiên cứu này)
+| Tiêu chí đánh giá         | Tình trạng được ghi nhận trong nghiên cứu             |
+| :----------------------- | :---------------------------------------------------- |
+| **Hiệu quả điều trị**     | Kết quả tốt 100% sau 3 tháng điều trị                 |
+| **Biến chứng sớm**        | Không có trường hợp tụ dịch sau một tháng             |
+| **Biến chứng muộn**       | Không có trường hợp đau vùng bẹn kéo dài, rối loạn cảm giác, hay nhiễm trùng |
+| **Tái phát bệnh**         | Không có trường hợp tái phát                          |</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên phân tích thống kê và đặc điểm dịch tễ học trong sản khoa.</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Phân tích chi tiết các số liệu thống kê về tiền sản giật có dấu hiệu nặng tại Bệnh viện Phụ sản Hà Nội năm 2022, bao gồm tỷ lệ mắc, đặc điểm bệnh nhân và các dấu hiệu chính.</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Tiền sản giật có dấu hiệu nặng (mã ICD-10: O14.1) là một tình trạng sản khoa nguy hiểm. Một nghiên cứu tại Bệnh viện Phụ sản Hà Nội năm 2022 đã cung cấp những số liệu quan trọng về đặc điểm của nhóm thai phụ này. Nghiên cứu tập trung vào 96 thai phụ được chẩn đoán tiền sản giật có dấu hiệu nặng từ tổng số 125 thai phụ tiền sản giật. Dưới đây là bảng tổng hợp các số liệu thống kê chi tiết:
+### Thống kê Đặc điểm Tiền sản giật có Dấu hiệu Nặng tại Bệnh viện Phụ sản Hà Nội (2022)
+| Đặc điểm                                       | Tỷ lệ (%) (trên tổng số TSG có dấu hiệu nặng) |
+| :--------------------------------------------- | :------------------------------------------- |
+| **Tỷ lệ TSG nặng trong tổng số TSG**           | 76,8%                                        |
+| **Tuổi thai phụ dưới 35 tuổi**                | 55,2%                                        |
+| **Tuổi thai dưới 34 tuần khi chẩn đoán**       | 62,5%                                        |
+| **Tăng huyết áp mức độ 2 trở lên**             | 78,1% (HA tâm thu ≥ 160 và/hoặc HA tâm trương ≥ 110 mmHg) |
+| **Phù**                                        | 81,3%                                        |
+| **Protein niệu ≥ 0,5 g/l**                     | 74,0%                                        |
+| **Triệu chứng biểu hiện tổn thương cơ quan đích** | 43,6%                                        |
+Các số liệu này cho thấy tiền sản giật có dấu hiệu nặng là tình trạng phổ biến ở các thai phụ tiền sản giật, thường xuất hiện ở giai đoạn sớm của thai kỳ (&lt;34 tuần) và biểu hiện chủ yếu bằng tăng huyết áp nặng, phù, và protein niệu đáng kể.</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về sản phụ khoa và các biến chứng thai kỳ, cung cấp thông tin dựa trên các nghiên cứu lâm sàng và hướng dẫn y tế.</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Xin vui lòng trình bày chi tiết về kết quả điều trị của thai phụ tiền sản giật có dấu hiệu nặng được ghi nhận tại Bệnh viện Phụ Sản Hà Nội năm 2022 theo nghiên cứu đã cung cấp.</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Nghiên cứu hồi cứu mô tả cắt ngang trên 125 thai phụ được chẩn đoán tiền sản giật tại Bệnh viện Phụ sản Hà Nội năm 2022 đã chỉ ra những kết quả đáng chú ý về tiền sản giật (TSG) có dấu hiệu nặng. Cụ thể, tỷ lệ thai phụ TSG có dấu hiệu nặng chiếm 76,8% trong tổng số các trường hợp tiền sản giật. Về phương pháp điều trị, phần lớn các thai phụ trong nhóm nghiên cứu (91,7%) được điều trị với hai loại thuốc hạ áp trở lên, phản ánh mức độ nặng của tình trạng bệnh. Đối với các thai phụ có tuổi thai dưới 34 tuần, 76,7% được điều trị corticoid trước sinh nhằm thúc đẩy sự trưởng thành phổi của thai nhi. Trong số các trường hợp có tuổi thai dưới 32 tuần, 59,5% được điều trị Magie sulfat để bảo vệ não cho thai nhi, một biện pháp quan trọng để giảm nguy cơ bại não ở trẻ sinh non.
+Về phương pháp chấm dứt thai kỳ, có 5,2% thai phụ được gây chuyển dạ, 8,3% chuyển dạ tự nhiên, và phần lớn (86,5%) được mổ lấy thai chủ động, chủ yếu do các biến chứng của tiền sản giật. Điều này nhấn mạnh tầm quan trọng của việc chủ động can thiệp để bảo vệ sức khỏe mẹ và con khi TSG có dấu hiệu nặng.
+Kết quả đối với con cho thấy biến chứng thường gặp nhất là đẻ non (65,6%) và sơ sinh nhẹ cân (69,8%). Mặc dù tuổi thai tại thời điểm chấm dứt thai kỳ có xu hướng cao hơn so với thời điểm chẩn đoán nhờ quản lý trước sinh và điều trị nội khoa, các biến chứng như đẻ non, thai chậm phát triển và sơ sinh nhẹ cân vẫn là những thách thức lớn, đòi hỏi theo dõi và quản lý chặt chẽ ở những thai kỳ nguy cơ cao.</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về điều trị và quản lý các tình trạng cấp cứu sản khoa, cung cấp thông tin dựa trên các phác đồ điều trị và nghiên cứu y học.</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Các phương pháp điều trị nội khoa và can thiệp sản khoa chính được áp dụng cho thai phụ tiền sản giật có dấu hiệu nặng là gì, dựa trên dữ liệu nghiên cứu?</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Dựa trên nghiên cứu về kết quả điều trị của thai phụ tiền sản giật có dấu hiệu nặng tại Bệnh viện Phụ Sản Hà Nội năm 2022, các phương pháp điều trị nội khoa và can thiệp sản khoa chính được áp dụng bao gồm:
+*   **Điều trị hạ áp:** Phần lớn thai phụ (91,7%) được điều trị với hai loại thuốc hạ áp trở lên, nhằm kiểm soát huyết áp cao, một dấu hiệu đặc trưng của tiền sản giật nặng.
+*   **Điều trị Corticoid trước sinh:** 76,7% thai phụ có tuổi thai dưới 34 tuần được điều trị corticoid. Mục tiêu của liệu pháp này là thúc đẩy sự trưởng thành phổi của thai nhi, giảm nguy cơ suy hô hấp ở trẻ sinh non.
+*   **Điều trị Magie sulfat bảo vệ não cho thai:** 59,5% thai phụ có tuổi thai dưới 32 tuần được điều trị Magie sulfat. Magie sulfat được sử dụng để phòng ngừa co giật ở mẹ (sản giật) và có tác dụng bảo vệ thần kinh cho thai nhi, giảm nguy cơ bại não ở trẻ sinh non.
+*   **Chấm dứt thai kỳ:** Các phương pháp chấm dứt thai kỳ được áp dụng đa dạng:
+    *   Gây chuyển dạ: 5,2% trường hợp.
+    *   Chuyển dạ tự nhiên: 8,3% trường hợp.
+    *   Mổ lấy thai chủ động: 86,5% trường hợp, chủ yếu do các biến chứng của tiền sản giật để đảm bảo an toàn cho cả mẹ và con.</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về chăm sóc sơ sinh và các biến chứng sản khoa, cung cấp thông tin dựa trên các báo cáo y tế và khuyến nghị lâm sàng.</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Những biến chứng thường gặp nào đối với trẻ sơ sinh của các thai phụ mắc tiền sản giật có dấu hiệu nặng cần được lưu ý?</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Đối với trẻ sơ sinh từ các thai phụ mắc tiền sản giật có dấu hiệu nặng, nghiên cứu đã chỉ ra những biến chứng phổ biến sau đây, đòi hỏi sự theo dõi và quản lý chặt chẽ:
+1.  **Đẻ non (Prematurity):** Đây là biến chứng thường gặp nhất, với tỷ lệ lên tới 65,6%. Sinh non xảy ra do thường phải chấm dứt thai kỳ sớm để bảo vệ sức khỏe của mẹ hoặc do các biến chứng của tiền sản giật ảnh hưởng trực tiếp đến thai nhi. Trẻ sinh non có nguy cơ cao mắc nhiều vấn đề sức khỏe khác nhau liên quan đến sự phát triển chưa hoàn thiện của các cơ quan.
+2.  **Sơ sinh nhẹ cân (Low birth weight):** Biến chứng này chiếm 69,8% các trường hợp. Sơ sinh nhẹ cân thường liên quan chặt chẽ đến đẻ non hoặc tình trạng thai chậm phát triển trong tử cung (Growth Restriction), khi thai nhi không nhận đủ dưỡng chất và oxy do suy chức năng bánh rau trong tiền sản giật nặng.
+3.  **Thai chậm phát triển trong tử cung (Intrauterine Growth Restriction - IUGR):** Mặc dù không có tỷ lệ cụ thể được nêu trong đoạn văn, nghiên cứu kết luận rằng thai chậm phát triển là một trong những biến chứng nặng cho con. Đây là hệ quả của việc giảm lưu lượng máu đến tử cung và nhau thai do tình trạng tiền sản giật, dẫn đến việc thai nhi không tăng trưởng theo đúng tiềm năng di truyền.</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về thống kê y học và phân tích kết quả nghiên cứu lâm sàng, cung cấp thông tin dưới dạng bảng dữ liệu khoa học.</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Dựa trên nghiên cứu tại Bệnh viện Phụ Sản Hà Nội năm 2022, hãy tổng hợp các thông số chính về tình hình và kết quả điều trị của thai phụ tiền sản giật có dấu hiệu nặng.</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Nghiên cứu hồi cứu mô tả cắt ngang tại Bệnh viện Phụ Sản Hà Nội năm 2022 đã cung cấp cái nhìn tổng quan về tình hình và kết quả điều trị của thai phụ tiền sản giật có dấu hiệu nặng. Các thông số chính được tổng hợp trong bảng dưới đây, làm rõ các khía cạnh về đối tượng nghiên cứu, phương pháp điều trị và kết cục sản khoa quan trọng cho cả mẹ và con.
+### Kết Quả Nghiên Cứu Tiền Sản Giật Có Dấu Hiệu Nặng (Bệnh viện Phụ Sản Hà Nội 2022)
+| Chỉ Số                                     | Giá Trị/Tỷ Lệ | Ghi Chú                                                                |
+|:-------------------------------------------|:--------------|:-----------------------------------------------------------------------|
+| Tổng số thai phụ được chẩn đoán TSG       | 125           | Đối tượng nghiên cứu                                                  |
+| Tỷ lệ TSG có dấu hiệu nặng                 | 76,8%         | (96/125 thai phụ)                                                      |
+| Tỷ lệ điều trị 2+ thuốc hạ áp              | 91,7%         | Trong nhóm TSG có dấu hiệu nặng                                        |
+| Tỷ lệ điều trị Corticoid trước sinh        | 76,7%         | Cho thai phụ &lt;34 tuần tuổi thai                                       |
+| Tỷ lệ điều trị Magie sulfat bảo vệ não thai| 59,5%         | Cho thai phụ &lt;32 tuần tuổi thai                                       |
+| Tỷ lệ gây chuyển dạ                       | 5,2%          | Trong nhóm TSG có dấu hiệu nặng                                        |
+| Tỷ lệ chuyển dạ tự nhiên                   | 8,3%          | Trong nhóm TSG có dấu hiệu nặng                                        |
+| Tỷ lệ mổ lấy thai chủ động                | 86,5%         | Chủ yếu do biến chứng của tiền sản giật                               |
+| Tỷ lệ biến chứng đẻ non cho con           | 65,6%         | Biến chứng thường gặp nhất                                            |
+| Tỷ lệ biến chứng sơ sinh nhẹ cân cho con  | 69,8%         | Biến chứng thường gặp thứ hai                                         |
+| Tuổi thai chấm dứt kỳ thai                 | Cao hơn        | So với thời điểm chẩn đoán, nhờ quản lý trước sinh và điều trị nội khoa |</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về tiêu hóa và các phương pháp điều trị can thiệp, cung cấp thông tin bệnh học và phác đồ điều trị.</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Về xuất huyết tiêu hóa do loét dạ dày tá tràng, đâu là những phương pháp điều trị chính được đề cập và những điểm cần lưu ý?</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xuất huyết tiêu hóa do loét dạ dày tá tràng là một tình trạng cấp cứu y tế nghiêm trọng. Dựa trên thông tin được cung cấp, điều trị nội khoa đóng vai trò chủ yếu trong quản lý tình trạng này, mặc dù tỷ lệ tử vong vẫn còn cao và thời gian nằm viện kéo dài hơn so với các phương pháp điều trị khác.
+Các phương pháp điều trị chính cho xuất huyết tiêu hóa do loét dạ dày tá tràng thường bao gồm sự kết hợp của điều trị nội khoa, nội soi can thiệp và đôi khi là phẫu thuật, tùy thuộc vào mức độ nghiêm trọng và nguyên nhân cụ thể của xuất huyết. Mặc dù văn bản nhấn mạnh điều trị nội khoa, thực tế lâm sàng thường tích hợp nhiều phương pháp để đạt hiệu quả tối ưu.
+Những điểm cần lưu ý: tỷ lệ tử vong vẫn cao và thời gian nằm viện kéo dài, đặc biệt trong các trường hợp nặng hoặc loét phức tạp như loét tá tràng kissing ulcer thủng vào động mạch vị tá tràng.
+Để minh họa các phương pháp điều trị và lưu ý, một tổng hợp được trình bày dưới đây:
+### Tổng Hợp Phương Pháp Điều Trị Xuất Huyết Tiêu Hóa Do Loét Dạ Dày Tá Tràng
+| Phương Pháp Điều Trị | Mô Tả                                                                   | Lưu Ý/Kết Quả                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về bệnh học tiêu hóa và phân loại ICD-10, cung cấp thông tin chi tiết về các phương pháp điều trị và điểm cần lưu ý.</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Loét dạ dày tá tràng gây xuất huyết có những phương pháp điều trị nào và những điểm cần lưu ý là gì, đặc biệt trong bối cảnh các nghiên cứu và ICD-10?</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loét dạ dày tá tràng gây xuất huyết là một tình trạng cấp cứu nội khoa nghiêm trọng, thuộc nhóm bệnh của đường tiêu hóa trên trong phân loại ICD-10 (ví dụ: K25.x cho loét dạ dày, K26.x cho loét tá tràng, kèm theo chỉ định chảy máu hoặc thủng). Dựa trên thông tin chung và các tài liệu tham khảo, các phương pháp điều trị chính và những điểm cần lưu ý bao gồm:
+Loét dạ dày tá tràng gây xuất huyết cần được chẩn đoán và điều trị kịp thời để giảm thiểu tỷ lệ tử vong và biến chứng. Mặc dù điều trị nội khoa là chủ yếu, phương pháp này thường được kết hợp với can thiệp nội soi và đôi khi là phẫu thuật, đặc biệt trong các trường hợp xuất huyết nặng hoặc tái phát.
+### Phương Pháp Điều Trị và Lưu Ý Đối Với Xuất Huyết Tiêu Hóa Do Loét Dạ Dày Tá Tràng
+| Hạng Mục Điều Trị       | Phương Pháp/Mô Tả                                                                                              | Điểm Cần Lưu Ý                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về sản phụ khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Hãy mô tả chi tiết về Tiền sản giật (TSG) theo định nghĩa và ảnh hưởng của nó.</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Tiền sản giật (TSG) là một rối loạn đa hệ thống phức tạp, khởi phát do thai nghén, thường được đặc trưng bởi sự xuất hiện mới của tăng huyết áp và protein niệu. Ngoài ra, nó cũng có thể biểu hiện bằng tăng huyết áp mới khởi phát kèm theo tổn thương các cơ quan mẹ (ví dụ: gan, thận, thần kinh) có hoặc không có protein niệu, xảy ra trong nửa cuối của thai kỳ hoặc sau sinh. Theo phân loại ICD-10 của Bộ Y tế Việt Nam, các mã liên quan đến tiền sản giật có thể bao gồm O14.0 (Tiền sản giật mức độ trung bình), O14.1 (Tiền sản giật nặng) và O14.9 (Tiền sản giật không xác định). Đây là một tình trạng y tế nghiêm trọng ảnh hưởng đến khoảng 2% đến 10% tổng số thai kỳ trên toàn thế giới. TSG được xem là một trong những nguyên nhân hàng đầu góp phần đáng kể vào tỷ lệ mắc bệnh và tử suất thô ở cả mẹ và trẻ sơ sinh. Ước tính có khoảng 50.000 đến 60.000 trường hợp tử vong mỗi năm trên toàn cầu có liên quan đến tiền sản giật. Trên lâm sàng, bệnh cảnh tiền sản giật rất đa dạng và không thể loại trừ chẩn đoán ngay cả khi không có tăng huyết áp hoặc protein niệu trong nước tiểu. Khoảng 25% phụ nữ mang thai mắc tiền sản giật sẽ tiến triển thành tăng huyết áp mức độ nặng hoặc có thể biểu hiện các triệu chứng đặc trưng cho mức độ nặng ở các cơ quan khác nhau.</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về nghiên cứu y học, hỗ trợ phân tích phương pháp và tiêu chí chẩn đoán.</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Trình bày các tiêu chuẩn chẩn đoán Tiền sản giật và dấu hiệu nặng của bệnh.</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Để chẩn đoán Tiền sản giật (TSG), các chuyên gia y tế dựa trên sự kết hợp của huyết áp, protein niệu và sự hiện diện của các dấu hiệu tổn thương cơ quan. Cụ thể, các tiêu chuẩn chẩn đoán được xác định như sau:
+*   **Tiêu chuẩn chẩn đoán Tiền sản giật:**
+    *   **Huyết áp:** Huyết áp tâm thu ≥ 140 mmHg hoặc huyết áp tâm trương ≥ 90 mmHg, được đo ít nhất 2 lần cách nhau tối thiểu 4 giờ. Tình trạng tăng huyết áp này phải xuất hiện sau 20 tuần thai kỳ ở những trường hợp trước đó có huyết áp bình thường.
+    *   **Protein niệu:** Lượng protein niệu ≥ 0,3g/l trong mẫu nước tiểu 24h hoặc ≥ 0,5g/l trong mẫu nước tiểu bất kỳ.
+*   **Các dấu hiệu nặng của Tiền sản giật:**
+    *   **Huyết áp:** Huyết áp tâm thu ≥ 160 mmHg hoặc huyết áp tâm trương ≥ 110 mmHg.
+    *   **Giảm tiểu cầu:** Số lượng tiểu cầu &lt; 100 G/L.
+    *   **Giảm chức năng gan:** Men gan (AST hoặc ALT) tăng ≥ 2 lần ngưỡng trên giới hạn bình thường, có thể kèm theo đau thượng vị hoặc đau vùng hạ sườn phải (vùng gan).
+    *   **Giảm chức năng thận:** Nồng độ creatinine huyết tương ≥ 1,1 mg/dl hoặc tăng gấp đôi so với giá trị nền trước đó, sau khi đã loại trừ các bệnh lý thận khác.
+    *   **Phù phổi cấp:** Tình trạng ứ dịch trong phổi, gây khó thở.
+    *   **Triệu chứng thần kinh hoặc thị giác:** Bao gồm đau đầu mới xuất hiện, dai dẳng và không đáp ứng với thuốc giảm đau thông thường (sau khi loại trừ các bệnh lý khác), nhìn mờ, hoặc ám điểm (điểm mù trong thị trường).</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về sản phụ khoa, cung cấp thông tin y tế chính xác và đáng tin cậy.</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Tóm tắt về các biến chứng tiềm ẩn của Tiền sản giật đối với cả mẹ và thai nhi.</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Tiền sản giật (TSG) là một tình trạng nguy hiểm có thể gây ra nhiều biến chứng nghiêm trọng cho cả mẹ và thai nhi. Đối với người mẹ, các biến chứng có thể bao gồm sản giật (co giật toàn thân), rau bong non (tách bánh nhau sớm), và rối loạn đông máu. Đây là những tình trạng đe dọa tính mạng và cần được xử lý cấp cứu. Về phía thai nhi, TSG có thể dẫn đến sinh non, thai nhi nhẹ cân, thai chậm phát triển trong tử cung. Trong những trường hợp nặng và diễn tiến phức tạp, tiền sản giật có thể gây ra tử vong cho cả mẹ và thai nhi. Do đó, việc theo dõi và quản lý chặt chẽ là vô cùng cần thiết để giảm thiểu rủi ro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về quản lý bệnh viện, hỗ trợ tổng hợp thông tin nghiên cứu và quy trình lâm sàng.</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu tại Bệnh viện Phụ sản Hà Nội, đối tượng và phương pháp nghiên cứu được xác định như thế nào?</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Nghiên cứu được thực hiện tại Bệnh viện Phụ sản Hà Nội đã xác định rõ ràng đối tượng và phương pháp nhằm đánh giá kết quả điều trị của thai phụ tiền sản giật có dấu hiệu nặng. Thiết kế nghiên cứu là mô tả cắt ngang hồi cứu, dựa trên việc thu thập và phân tích hồ sơ bệnh án. Việc xác định cỡ mẫu cũng được thực hiện cẩn thận để đảm bảo tính đại diện.
+Dưới đây là tổng hợp chi tiết về đối tượng và phương pháp nghiên cứu:
+## Tổng hợp Đối tượng và Phương pháp Nghiên cứu Tiền Sản Giật tại Bệnh viện Phụ sản Hà Nội
+| Tiêu chí                      | Mô tả chi tiết                                                                                                                                                                                                                                                                     |
+| :---------------------------- | :--------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- |
+| **Đối tượng nghiên cứu**      | Các thai phụ được chẩn đoán xác định Tiền sản giật (TSG) đã được theo dõi, điều trị và kết thúc thai kỳ tại Bệnh viện Phụ sản Hà Nội trong khoảng thời gian từ ngày 01/01/2022 đến ngày 31/12/2022.                                                                                 |
+| **Tiêu chuẩn lựa chọn**       | 1. Các thai phụ được chẩn đoán xác định là TSG, được điều trị và kết thúc thai kỳ tại khoa Sản bệnh, Bệnh viện Phụ sản Hà Nội. &lt;br&gt; 2. Có hồ sơ bệnh án lưu trữ thông tin đầy đủ và đáng tin cậy.                                                                                         |
+| **Tiêu chuẩn loại trừ**       | 1. Sản phụ chấm dứt thai kỳ vì các nguyên nhân khác kèm theo (không phải do TSG). &lt;br&gt; 2. Sản phụ mắc các bệnh lý tâm thần hoặc rối loạn trí nhớ, có thể ảnh hưởng đến thông tin trong hồ sơ hoặc khả năng hợp tác.                                                              |
+| **Thiết kế nghiên cứu**       | Nghiên cứu mô tả cắt ngang hồi cứu, thực hiện dựa trên việc phân tích các hồ sơ bệnh án đã có sẵn tại bệnh viện.                                                                                                                                                                   |
+| **Cỡ mẫu nghiên cứu**         | Cỡ mẫu được tính toán theo công thức n = Z²1-α/2 p.q / (εp)², với Z = 1.96 (cho α=0.05), p=0.438 (tỷ lệ triệu chứng phù trong TSG), q=0.562, và ε=0.2. Kết quả tính toán là n=124. Thực tế, nghiên cứu đã thu được 125 hồ sơ bệnh án thỏa mãn tiêu chuẩn nghiên cứu. |
+| **Xử lý số liệu**             | Các số liệu thu thập được xử lý bằng phần mềm SPSS 22.0, áp dụng các thuật toán thống kê phù hợp để phân tích và đánh giá.                                                                                                                                                           |
+| **Đạo đức nghiên cứu**        | Nghiên cứu đã được thông qua bởi các cấp có thẩm quyền và lãnh đạo Bệnh viện Phụ sản Hà Nội, đảm bảo tuân thủ các nguyên tắc đạo đức trong nghiên cứu y học.                                                                                                                     |</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về dược học và điều trị, hỗ trợ thông tin về phác đồ và kết quả điều trị.</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Với bệnh cảnh Tiền sản giật có dấu hiệu nặng, phác đồ điều trị hiện tại là gì và những biến số nào được sử dụng để đánh giá kết quả?</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Đối với Tiền sản giật (TSG) có dấu hiệu nặng, thái độ xử trí và hướng điều trị là một thách thức lớn, đặc biệt trong các trường hợp thai non tháng. Hiện tại, hình thức điều trị dứt điểm duy nhất và hiệu quả cho TSG có dấu hiệu nặng là ổn định tình trạng của mẹ và thai, sau đó chấm dứt thai kỳ vào thời điểm tối ưu nhất cho cả hai. Quyết định về thời điểm và phương pháp chấm dứt thai kỳ phụ thuộc vào nhiều yếu tố như tuổi thai phát hiện bệnh, mức độ nặng của bệnh, tình trạng sức khỏe của mẹ và thai nhi.
+Các biện pháp hỗ trợ trước và trong khi chấm dứt thai kỳ bao gồm việc kiểm soát huyết áp bằng thuốc hạ áp, dự phòng và điều trị co giật bằng Magnesium Sulfate, và có thể sử dụng Corticoid để thúc đẩy trưởng thành phổi cho thai nhi nếu thai còn non tháng. Sau khi chấm dứt thai kỳ, tình trạng của mẹ và con sẽ được theo dõi chặt chẽ để đánh giá hiệu quả điều trị và quản lý các biến chứng hậu sản.
+Để đánh giá kết quả điều trị, các biến số lâm sàng và cận lâm sàng sau đây thường được sử dụng và ghi nhận:
+## Các Biến số Đánh giá Kết quả Điều trị Tiền Sản Giật Nặng
+| Biến số Đánh giá                | Mô tả/Chỉ số Điển hình                                                                                                  | Ý nghĩa                                                                                                 |
+| :------------------------------ | :---------------------------------------------------------------------------------------------------------------------- | :------------------------------------------------------------------------------------------------------- |
+| **Tuổi thai tại thời điểm chấm dứt thai kỳ** | Ví dụ: 34 tuần 5 ngày, 37 tuần 0 ngày.                                                                                  | Chỉ số quan trọng ảnh hưởng đến tiên lượng thai nhi, liên quan đến nguy cơ sinh non và các biến chứng. |
+| **Số ngày điều trị nội khoa**   | Ví dụ: 3 ngày, 7 ngày.                                                                                                  | Thời gian cần thiết để ổn định tình trạng mẹ và chuẩn bị cho việc chấm dứt thai kỳ.                   |
+| **Thuốc sử dụng cho mẹ**        | Ví dụ: Magie sulfat (dự phòng co giật), Labetalol (hạ áp), Nifedipine (hạ áp).                                         | Phác đồ điều trị hỗ trợ, kiểm soát triệu chứng và ngăn ngừa biến chứng ở mẹ.                           |
+| **Thuốc sử dụng cho thai**      | Ví dụ: Betamethasone (trưởng thành phổi thai nhi).                                                                     | Các can thiệp nhằm giảm thiểu nguy cơ cho thai nhi trong trường hợp sinh non.                        |
+| **Phương pháp chuyển dạ**       | Ví dụ: Mổ lấy thai, khởi phát chuyển dạ bằng Oxytocin.                                                                  | Quyết định dựa trên tình trạng lâm sàng của mẹ và thai, tuổi thai, và mức độ khẩn cấp.                |
+| **Lý do chuyển dạ**             | Ví dụ: TSG nặng không đáp ứng điều trị, HELLP syndrome, suy thai cấp.                                                  | Nguyên nhân chính dẫn đến việc phải chấm dứt thai kỳ sớm.                                              |
+| **Biến chứng cho con**          | Ví dụ: Suy hô hấp sơ sinh, nhiễm trùng sơ sinh, xuất huyết não, vàng da nặng.                                           | Các vấn đề sức khỏe của trẻ sơ sinh do sinh non hoặc ảnh hưởng từ TSG của mẹ.                           |
+| **Tình trạng con sau sinh (Cân nặng)** | Ví dụ: 2200 gram (nhẹ cân), 3000 gram.                                                                                  | Chỉ số sức khỏe tổng quát, đặc biệt quan trọng để đánh giá thai chậm phát triển trong tử cung.          |
+| **Tình trạng con sau sinh (Điểm Apgar)** | Ví dụ: Apgar 1 phút: 8 điểm, Apgar 5 phút: 9 điểm (bình thường), Apgar 1 phút: 5 điểm, Apgar 5 phút: 7 điểm (nghi ngờ). | Đánh giá khả năng thích nghi và sức sống của trẻ sơ sinh ngay sau sinh.</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr"/>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Mô tả đặc điểm lâm sàng và các dấu hiệu nặng của tiền sản giật (TSG) dựa trên dữ liệu nghiên cứu này.</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Tiền sản giật (TSG) có dấu hiệu nặng, được mã hóa theo ICD-10 là O14.1, là một tình trạng phức tạp trong thai kỳ với nhiều đặc điểm lâm sàng nghiêm trọng. Dựa trên nghiên cứu, phần lớn các thai phụ mắc TSG có dấu hiệu nặng đều biểu hiện tăng huyết áp đáng kể, với huyết áp tâm thu trung bình là 158,2 ± 24,2 mmHg (dao động từ 110-260 mmHg) và huyết áp tâm trương trung bình là 96,7 ± 14,0 mmHg (dao động từ 70-160 mmHg). Đáng chú ý, 78,1% các trường hợp có tăng huyết áp từ độ 2 trở lên. Phù là một dấu hiệu phổ biến, được ghi nhận ở 81,3% thai phụ, trong khi chỉ 18,7% không có phù. Một chỉ dấu quan trọng khác là protein niệu, với 74,0% thai phụ có nồng độ protein niệu ≥ 0,5 g/l. Ngoài ra, tổn thương cơ quan đích đã được xác định ở 43,8% các trường hợp, nhấn mạnh mức độ nghiêm trọng của bệnh. Các đặc điểm này cho thấy TSG có dấu hiệu nặng là một tình trạng đòi hỏi sự theo dõi và can thiệp y tế chặt chẽ để phòng ngừa các biến chứng nguy hiểm cho cả mẹ và con.</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr"/>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Trong quản lý tiền sản giật có dấu hiệu nặng, các phương pháp điều trị nội khoa được áp dụng cho mẹ và thai nhi bao gồm những loại thuốc nào và tần suất sử dụng ra sao?</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Trong quản lý tiền sản giật (TSG) có dấu hiệu nặng, việc điều trị nội khoa tập trung vào kiểm soát huyết áp cho mẹ và hỗ trợ phát triển phổi thai nhi. Các phương pháp điều trị chủ yếu bao gồm:
+*   **Đối với mẹ:**
+    *   **Thuốc hạ áp:**
+        *   Sử dụng một loại thuốc hạ áp: 8,3% thai phụ.
+        *   Sử dụng từ hai loại thuốc hạ áp trở lên: 91,7% thai phụ. Đa số các thai phụ TSG có dấu hiệu nặng cần điều trị kết hợp nhiều loại thuốc hạ áp (84,3% theo nhận xét).
+    *   **Magie sulfat:**
+        *   Có sử dụng Magie sulfat: 84,3% thai phụ.
+        *   Không sử dụng Magie sulfat: 15,7% thai phụ (dựa trên 15 trường hợp không dùng trong tổng số 96). Magie sulfat thường được chỉ định để dự phòng và điều trị co giật (sản giật).
+*   **Đối với thai nhi:**
+    *   **Corticoid (cho thai &lt; 34 tuần):** Áp dụng cho 60 trường hợp thai dưới 34 tuần.
+        *   Có sử dụng Corticoid: 76,7% các trường hợp này.
+        *   Không sử dụng Corticoid: 23,3% các trường hợp này. Corticoid được dùng để thúc đẩy trưởng thành phổi thai nhi.
+    *   **Magie sulfat (cho thai &lt; 32 tuần):** Áp dụng cho 27 trường hợp thai dưới 32 tuần.
+        *   Có sử dụng Magie sulfat: 59,3% các trường hợp này.
+        *   Không sử dụng Magie sulfat: 40,7% các trường hợp này. Magie sulfat ở thai dưới 32 tuần cũng có thể được dùng để bảo vệ thần kinh thai nhi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr"/>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Các phương pháp chấm dứt thai kỳ và thời gian điều trị trung bình cho thai phụ tiền sản giật có dấu hiệu nặng như thế nào, và đâu là những chỉ định phổ biến nhất cho mổ lấy thai?</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Trong các trường hợp tiền sản giật (TSG) có dấu hiệu nặng, việc chấm dứt thai kỳ thường được thực hiện chủ động và là một quyết định quan trọng để bảo vệ sức khỏe mẹ và con. Phần lớn (91,7%) các thai phụ cần chấm dứt thai kỳ chủ động. Phương pháp chấm dứt thai kỳ phổ biến nhất là mổ lấy thai, chiếm tỷ lệ rất cao 86,5%, trong khi chuyển dạ tự nhiên chỉ 8,3% và gây chuyển dạ 5,2%. Về thời gian điều trị, tỷ lệ thai phụ được điều trị trong vòng 3-7 ngày chiếm cao nhất (38,5%), với thời gian điều trị trung bình là 4,6 ± 6,1 ngày (dao động từ 1 đến 28 ngày). Một phần tư các trường hợp (25,0%) được chấm dứt thai kỳ ngay lập tức. Các chỉ định chính cho mổ lấy thai ở thai phụ TSG có dấu hiệu nặng bao gồm: điều trị nội khoa thất bại (34,9%), cần chấm dứt thai kỳ ngay lập tức do tình trạng nặng của TSG (21,7%), thai chậm phát triển (9,6%), thai suy (8,4%), và các biến chứng nghiêm trọng khác như sản giật hoặc rau bong non (2 trường hợp).</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr"/>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Phân tích các biến chứng và kết quả điều trị về phía con trong trường hợp thai phụ tiền sản giật có dấu hiệu nặng.</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Tiền sản giật có dấu hiệu nặng gây ra nhiều biến chứng và ảnh hưởng nghiêm trọng đến kết quả điều trị về phía thai nhi. Tình trạng này có thể dẫn đến các vấn đề sức khỏe đáng kể cho trẻ sơ sinh, bao gồm sinh non, nhẹ cân, và các biến cố chu sinh khác. Tổng hợp kết quả từ nghiên cứu cho thấy các biến chứng chính và đặc điểm của thai nhi như sau:
+| Đặc điểm biến chứng và kết quả thai nhi | Số lượng (n) | Tỷ lệ (%) |
+| :-------------------------------- | :----------- | :-------- |
+| Thai chậm phát triển              | 8            | 8,3       |
+| Thai lưu                          | 5            | 5,2       |
+| Chết sau sinh                     | 9            | 9,4       |
+| Đẻ non                            | 63           | 65,6      |
+| Trẻ nhẹ cân (&lt;2500g)              | 67           | 69,8      |
+| **Trọng lượng thai (n=91)**       |              |           |
+| &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt; 2500g   | 67           | 73,6      |
+| &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;≥ 2500g   | 24           | 26,4      |
+| &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;Trung bình ± ĐĐLC (gram) | 1857,3 ± 814,7 | N/A       |
+| **Apgar phút thứ nhất**           |              |           |
+| &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt; 7 điểm  | 33           | 36,3      |
+| &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;≥ 7 điểm  | 58           | 63,7      |
+Bảng trên chỉ rõ gánh nặng của tiền sản giật nặng đối với thai nhi, với tỷ lệ đẻ non và trẻ nhẹ cân rất cao, phản ánh sự cần thiết của quản lý thai kỳ chặt chẽ và can thiệp kịp thời.</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr"/>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>So sánh phân bố tuổi thai tại thời điểm chẩn đoán và thời điểm chấm dứt thai kỳ ở các trường hợp tiền sản giật có dấu hiệu nặng, và ý nghĩa của sự khác biệt này.</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Việc xác định tuổi thai tại thời điểm chẩn đoán và thời điểm chấm dứt thai kỳ là yếu tố then chốt trong quản lý tiền sản giật có dấu hiệu nặng, ảnh hưởng đến tiên lượng và chiến lược can thiệp. Dữ liệu nghiên cứu cho thấy có sự dịch chuyển đáng kể trong phân bố tuổi thai giữa hai thời điểm này, phản ánh nỗ lực kéo dài thai kỳ khi có thể nhưng vẫn đảm bảo an toàn.
+| Tuổi thai (tuần) | Thời điểm chẩn đoán | Thời điểm chấm dứt thai kỳ |
+| :--------------- | :------------------ | :------------------------- |
+|                  | SL     | %        | SL     | %        |
+| &lt; 28             | 14     | 14,6     | 11     | 11,5     |
+| 28-34            | 46     | 47,9     | 41     | 42,7     |
+| &gt; 34             | 36     | 37,5     | 44     | 45,8     |
+| **Trung bình ± ĐĐLC** | **32,4 ± 4,1** | **-** | **33,1 ± 3,6** | **-** |
+Kết quả cho thấy tuổi thai trung bình tại thời điểm chấm dứt thai kỳ (33,1 ± 3,6 tuần) cao hơn so với thời điểm chẩn đoán (32,4 ± 4,1 tuần), và sự khác biệt này có ý nghĩa thống kê (p=0,022). Đặc biệt, tỷ lệ thai dưới 28 tuần tại thời điểm chấm dứt thai kỳ đã giảm (11,5%) so với thời điểm chẩn đoán (14,6%), cho thấy các nỗ lực trì hoãn việc chấm dứt thai kỳ ở những trường hợp thai non tháng cực kỳ non tháng đã thành công ở một mức độ nhất định, nhằm cải thiện kết quả cho thai nhi.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
